--- a/SGMTYNY/Recursos/Datos/PageOportunidadesConfigurarProducto.xlsx
+++ b/SGMTYNY/Recursos/Datos/PageOportunidadesConfigurarProducto.xlsx
@@ -9,24 +9,24 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="InformacionPersonal" sheetId="1" r:id="rId1"/>
-    <sheet name="Asegurado" sheetId="7" r:id="rId2"/>
+    <sheet name="Asegurado" sheetId="7" state="hidden" r:id="rId2"/>
     <sheet name="SeleccionarProducto" sheetId="2" r:id="rId3"/>
     <sheet name="SeleccionarPlan" sheetId="3" r:id="rId4"/>
     <sheet name="FrecuenciaPago" sheetId="6" r:id="rId5"/>
     <sheet name="Datos" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="ALFA_MEDICAL">Datos!$B$3:$B$9</definedName>
+    <definedName name="ALFA_MEDICAL">Datos!$B$3:$B$8</definedName>
     <definedName name="ALM">Datos!$C$2:$C$5</definedName>
     <definedName name="ALMF">Datos!$D$2:$D$3</definedName>
     <definedName name="ISER">Datos!$E$2:$E$17</definedName>
     <definedName name="NP">Datos!$F$2:$F$10</definedName>
-    <definedName name="ORV">Datos!$G$2:$G$14</definedName>
-    <definedName name="Plan">IF(SeleccionarProducto!XEV1048564="ALFA MEDICAL",Datos!$C$2:$C$5,IF(SeleccionarProducto!XEV1048564="ALFA MEDICAL FLEX",Datos!$D$2:$D$3,IF(SeleccionarProducto!XEV1048564="IMAGINA SER",Datos!$E$2:$E$17,IF(SeleccionarProducto!XEV1048564="NUEVO PLENITUD",Datos!$F$2:$F$10,IF(SeleccionarProducto!XEV1048564="ORVI 99",Datos!$G$2:$G$14,"")))))</definedName>
+    <definedName name="ORV">Datos!$G$2:$G$13</definedName>
+    <definedName name="Plan">IF(SeleccionarProducto!XEV1048564="ALFA MEDICAL",Datos!$C$2:$C$5,IF(SeleccionarProducto!XEV1048564="ALFA MEDICAL FLEX",Datos!$D$2:$D$3,IF(SeleccionarProducto!XEV1048564="IMAGINA SER",Datos!$E$2:$E$17,IF(SeleccionarProducto!XEV1048564="NUEVO PLENITUD",Datos!$F$2:$F$10,IF(SeleccionarProducto!XEV1048564="ORVI 99",Datos!$G$2:$G$13,"")))))</definedName>
     <definedName name="PROD">SeleccionarProducto!$A$2</definedName>
     <definedName name="REA">Datos!$H$2:$H$3</definedName>
     <definedName name="SD">Datos!$I$2:$I$7</definedName>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="133">
   <si>
     <t>ConfigurarProductoBaseEn</t>
   </si>
@@ -389,52 +389,58 @@
     <t>MENSUAL</t>
   </si>
   <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>Sexo</t>
+  </si>
+  <si>
+    <t>SEXO</t>
+  </si>
+  <si>
+    <t>MASCULINO</t>
+  </si>
+  <si>
+    <t>FEMENINO</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>ApellidoPaterno</t>
+  </si>
+  <si>
+    <t>ApellidoMaterno</t>
+  </si>
+  <si>
+    <t>FechaNacimiento</t>
+  </si>
+  <si>
+    <t>500000</t>
+  </si>
+  <si>
+    <t>73080</t>
+  </si>
+  <si>
+    <t>AniosGarantia</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>orv</t>
+  </si>
+  <si>
+    <t>nvo</t>
+  </si>
+  <si>
     <t>PRODUCTO</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>CP</t>
-  </si>
-  <si>
-    <t>Sexo</t>
-  </si>
-  <si>
-    <t>SEXO</t>
-  </si>
-  <si>
-    <t>MASCULINO</t>
-  </si>
-  <si>
-    <t>FEMENINO</t>
-  </si>
-  <si>
-    <t>Nombre</t>
-  </si>
-  <si>
-    <t>ApellidoPaterno</t>
-  </si>
-  <si>
-    <t>ApellidoMaterno</t>
-  </si>
-  <si>
-    <t>FechaNacimiento</t>
-  </si>
-  <si>
-    <t>500000</t>
-  </si>
-  <si>
-    <t>73080</t>
-  </si>
-  <si>
-    <t>AniosGarantia</t>
-  </si>
-  <si>
-    <t>10</t>
   </si>
 </sst>
 </file>
@@ -757,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -795,39 +801,39 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" t="s">
         <v>118</v>
-      </c>
-      <c r="I1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="E2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -862,45 +868,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.6328125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="14.26953125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="15" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1796875" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="15.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.90625" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.26953125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.81640625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" t="s">
         <v>123</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>124</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>125</v>
-      </c>
-      <c r="D1" t="s">
-        <v>126</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" t="s">
         <v>118</v>
-      </c>
-      <c r="G1" t="s">
-        <v>119</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
@@ -917,13 +923,13 @@
         <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -955,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -971,7 +977,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -981,7 +987,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Datos!$B$2:$B$9</xm:f>
+            <xm:f>Datos!$B$2:$B$8</xm:f>
           </x14:formula1>
           <xm:sqref>A2</xm:sqref>
         </x14:dataValidation>
@@ -995,13 +1001,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
@@ -1011,7 +1017,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1029,7 +1035,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1043,7 +1051,7 @@
         <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -1051,7 +1059,7 @@
         <v>112</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1074,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1095,7 +1103,7 @@
     <col min="11" max="11" width="19.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -1130,10 +1138,10 @@
         <v>110</v>
       </c>
       <c r="L1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1168,10 +1176,13 @@
         <v>111</v>
       </c>
       <c r="L2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+      <c r="N2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1206,15 +1217,15 @@
         <v>112</v>
       </c>
       <c r="L3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
         <v>54</v>
@@ -1237,22 +1248,28 @@
       <c r="K4" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="P4" t="s">
+        <v>131</v>
+      </c>
+      <c r="R4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
         <v>60</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I5" t="s">
         <v>100</v>
@@ -1263,22 +1280,28 @@
       <c r="K5" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="P5" t="s">
+        <v>78</v>
+      </c>
+      <c r="R5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
         <v>61</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I6" t="s">
         <v>101</v>
@@ -1286,22 +1309,28 @@
       <c r="J6" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="P6" t="s">
+        <v>79</v>
+      </c>
+      <c r="R6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
         <v>62</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I7" t="s">
         <v>102</v>
@@ -1309,59 +1338,56 @@
       <c r="J7" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="P7" t="s">
+        <v>81</v>
+      </c>
+      <c r="R7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
         <v>63</v>
       </c>
-      <c r="F8" t="s">
-        <v>79</v>
-      </c>
       <c r="G8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J8" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="P8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
-        <v>51</v>
-      </c>
       <c r="E9" t="s">
         <v>64</v>
       </c>
-      <c r="F9" t="s">
-        <v>80</v>
-      </c>
       <c r="G9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>19</v>
       </c>
       <c r="E10" t="s">
         <v>65</v>
       </c>
-      <c r="F10" t="s">
-        <v>81</v>
-      </c>
       <c r="G10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1369,43 +1395,34 @@
         <v>66</v>
       </c>
       <c r="G11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>21</v>
       </c>
       <c r="E12" t="s">
         <v>67</v>
       </c>
-      <c r="G12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>22</v>
       </c>
       <c r="E13" t="s">
         <v>68</v>
       </c>
-      <c r="G13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>23</v>
       </c>
       <c r="E14" t="s">
         <v>69</v>
       </c>
-      <c r="G14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1413,7 +1430,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>25</v>
       </c>

--- a/SGMTYNY/Recursos/Datos/PageOportunidadesConfigurarProducto.xlsx
+++ b/SGMTYNY/Recursos/Datos/PageOportunidadesConfigurarProducto.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="InformacionPersonal" sheetId="1" r:id="rId1"/>
@@ -440,7 +440,7 @@
     <t>nvo</t>
   </si>
   <si>
-    <t>PRODUCTO</t>
+    <t>NECESIDAD</t>
   </si>
 </sst>
 </file>
@@ -764,7 +764,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -815,7 +815,7 @@
         <v>115</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>116</v>
@@ -962,7 +962,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -977,7 +977,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1001,8 +1001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1035,8 +1035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1056,7 +1056,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>129</v>
@@ -1085,7 +1085,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
